--- a/Option.xlsx
+++ b/Option.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="80" documentId="11_3DFC2F89E4763453B786125DFBF381322C73FFBF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{360D3CB8-1448-4DC1-A5E8-B53227B66858}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUNGJU SEO\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC19DDF-6CF9-4E15-B815-9BCC5F79D379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <definedName name="_msoanchor_1">Sheet1!$B$3</definedName>
     <definedName name="_msoanchor_2">Sheet1!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,9 +55,6 @@
     <t>Inc</t>
   </si>
   <si>
-    <t>0회(부정기적)</t>
-  </si>
-  <si>
     <t>1회</t>
   </si>
   <si>
@@ -126,13 +128,53 @@
   </si>
   <si>
     <t>기타</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부정기적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +183,44 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <charset val="1"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,11 +243,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -196,7 +267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -495,181 +566,170 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="E8" t="s">
+      <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100DC1C5A3E621BCE4C8E90D7D9425CCE14" ma:contentTypeVersion="8" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="146d3fc4866552bc46f3d62df25a589b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3be4972-e0a6-4225-b97d-b2a0c47f40e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04184f9c2210f6f7c030ba31078d8d24" ns2:_="">
     <xsd:import namespace="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
@@ -841,14 +901,59 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CDE1912-1BD3-4A6C-8803-D03E9EECB9DA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C3C367-0BFD-450F-B19F-F78C08645E32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F06839F-2275-4C4E-B6BB-2C44D0B274A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F06839F-2275-4C4E-B6BB-2C44D0B274A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C3C367-0BFD-450F-B19F-F78C08645E32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CDE1912-1BD3-4A6C-8803-D03E9EECB9DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Option.xlsx
+++ b/Option.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUNGJU SEO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC19DDF-6CF9-4E15-B815-9BCC5F79D379}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAC0E71A-A879-4145-ACAE-DD0F0B42F67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_msoanchor_1">Sheet1!$B$3</definedName>
-    <definedName name="_msoanchor_2">Sheet1!$B$4</definedName>
+    <definedName name="_msoanchor_1">Sheet1!$D$3</definedName>
+    <definedName name="_msoanchor_2">Sheet1!$D$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Number</t>
   </si>
@@ -130,51 +130,31 @@
     <t>기타</t>
   </si>
   <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부정기적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>0회 (부정기적)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,23 +185,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,12 +206,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -563,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -574,152 +536,164 @@
     <col min="1" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="2"/>
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -730,6 +704,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100DC1C5A3E621BCE4C8E90D7D9425CCE14" ma:contentTypeVersion="8" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="146d3fc4866552bc46f3d62df25a589b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3be4972-e0a6-4225-b97d-b2a0c47f40e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04184f9c2210f6f7c030ba31078d8d24" ns2:_="">
     <xsd:import namespace="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
@@ -901,22 +890,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F06839F-2275-4C4E-B6BB-2C44D0B274A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CDE1912-1BD3-4A6C-8803-D03E9EECB9DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C3C367-0BFD-450F-B19F-F78C08645E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -932,28 +930,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F06839F-2275-4C4E-B6BB-2C44D0B274A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CDE1912-1BD3-4A6C-8803-D03E9EECB9DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Option.xlsx
+++ b/Option.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUNGJU SEO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\R\FinalCapstoneTheAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAC0E71A-A879-4145-ACAE-DD0F0B42F67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC633E-25F1-4DEC-B558-FBCE0EB34BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1488" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Number</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>hyper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -536,7 +548,7 @@
     <col min="1" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,16 +570,22 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -589,8 +607,11 @@
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -613,7 +634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -633,7 +654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -647,7 +668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -661,7 +682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -673,7 +694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,7 +702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -689,7 +710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -704,21 +725,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100DC1C5A3E621BCE4C8E90D7D9425CCE14" ma:contentTypeVersion="8" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="146d3fc4866552bc46f3d62df25a589b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3be4972-e0a6-4225-b97d-b2a0c47f40e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04184f9c2210f6f7c030ba31078d8d24" ns2:_="">
     <xsd:import namespace="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
@@ -890,10 +896,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F06839F-2275-4C4E-B6BB-2C44D0B274A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C3C367-0BFD-450F-B19F-F78C08645E32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -915,19 +946,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C3C367-0BFD-450F-B19F-F78C08645E32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F06839F-2275-4C4E-B6BB-2C44D0B274A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Option.xlsx
+++ b/Option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\R\FinalCapstoneTheAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEC633E-25F1-4DEC-B558-FBCE0EB34BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F970FE-D7E3-4593-893B-710385AF384E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1488" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Number</t>
   </si>
@@ -150,15 +150,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Age20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맞음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -548,7 +560,7 @@
     <col min="1" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,10 +583,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,10 +597,13 @@
         <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -608,10 +626,13 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -634,7 +655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -654,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -668,7 +689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -682,7 +703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -694,7 +715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -702,7 +723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -710,7 +731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -725,6 +746,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100DC1C5A3E621BCE4C8E90D7D9425CCE14" ma:contentTypeVersion="8" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="146d3fc4866552bc46f3d62df25a589b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a3be4972-e0a6-4225-b97d-b2a0c47f40e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04184f9c2210f6f7c030ba31078d8d24" ns2:_="">
     <xsd:import namespace="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
@@ -896,22 +932,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F06839F-2275-4C4E-B6BB-2C44D0B274A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CDE1912-1BD3-4A6C-8803-D03E9EECB9DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0C3C367-0BFD-450F-B19F-F78C08645E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -927,28 +972,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CDE1912-1BD3-4A6C-8803-D03E9EECB9DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="a3be4972-e0a6-4225-b97d-b2a0c47f40e5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F06839F-2275-4C4E-B6BB-2C44D0B274A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>